--- a/biology/Botanique/Zaalouk/Zaalouk.xlsx
+++ b/biology/Botanique/Zaalouk/Zaalouk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le zaalouk ou zaâlouk (caviar d'aubergine, زعلوك, en arabe marocain, ⵣⴰⵄⵍⵓⴽ, en berbère) est spécialité culinaire traditionnelle de la cuisine marocaine, à base d'aubergines, de tomates, d'herbes aromatiques, d'épices et d'huile d'olive du Maroc[1],[2]. Cette recette s'est diffusée avec le temps aux cuisine magrébine et cuisine méditerranéenne. 
+Le zaalouk ou zaâlouk (caviar d'aubergine, زعلوك, en arabe marocain, ⵣⴰⵄⵍⵓⴽ, en berbère) est spécialité culinaire traditionnelle de la cuisine marocaine, à base d'aubergines, de tomates, d'herbes aromatiques, d'épices et d'huile d'olive du Maroc,. Cette recette s'est diffusée avec le temps aux cuisine magrébine et cuisine méditerranéenne. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le zaalouk est un plat typique, traditionnel, et simple à préparer de la cuisine marocaine, issu de l'importante quantité historique d’aubergines (de l'Ancien Monde) et de tomates (du Nouveau Monde) cultivées au Maroc[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le zaalouk est un plat typique, traditionnel, et simple à préparer de la cuisine marocaine, issu de l'importante quantité historique d’aubergines (de l'Ancien Monde) et de tomates (du Nouveau Monde) cultivées au Maroc,.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les aubergines et les tomates (et éventuellement des poivrons) sont d’abord traditionnellement grillées (ou cuites à l'huile d'olive) puis écrasées et finement hachées, puis revenues à l'huile d'olive avec un assaisonnement de plantes aromatiques (ail, coriandre ou persil) et d'épices (cumin, paprika, piment...)[5],[6],[7],[8],[9].
-Le plat est généralement servi comme entrée, généralement mangé avec du pain[7], ou comme plat d'accompagnement du plat principal avec des viandes ou des poissons[10]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les aubergines et les tomates (et éventuellement des poivrons) sont d’abord traditionnellement grillées (ou cuites à l'huile d'olive) puis écrasées et finement hachées, puis revenues à l'huile d'olive avec un assaisonnement de plantes aromatiques (ail, coriandre ou persil) et d'épices (cumin, paprika, piment...).
+Le plat est généralement servi comme entrée, généralement mangé avec du pain, ou comme plat d'accompagnement du plat principal avec des viandes ou des poissons. 
 Quelques différentes méthodes et différents ingrédients sont utilisées mais la base reste l'aubergine frite ou rôtie aux tomates et les poivrons avec ses épices chaudes vertes et rouges. Ce plat de régime méditerranéen est riche en fibres alimentaires car composé de légumes.
 </t>
         </is>
@@ -578,7 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ingrédients
+          <t>Ingrédients</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 4 aubergines
 1 c. à soupe de sel
 Huile pour friture
@@ -589,8 +611,43 @@
 1 gousse d'ail émincée
 1 c. à café bombée d'épices charmoula
 Feuilles de coriandre ciselées
-Élaboration
-Couper les aubergines en rondelles d'1 cm d'épaisseur, les saler et les laisser dégorger. Rincer les rondelles d'aubergines, les presser et les éponger. Frire les rondelles aubergines dans de l'huile chaude, les égoutter et les hacher grossièrement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Zaalouk</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zaalouk</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exemple de préparation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Élaboration</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Couper les aubergines en rondelles d'1 cm d'épaisseur, les saler et les laisser dégorger. Rincer les rondelles d'aubergines, les presser et les éponger. Frire les rondelles aubergines dans de l'huile chaude, les égoutter et les hacher grossièrement.
 Dans une poêle sur feu doux, déposer les tomates, le concentré de tomate, la gousse d'ail, l'eau et les épices. Couvrir et laisser cuire les tomates 8 à 10 min.
 Rajouter les aubergines et continuer la cuisson 3 min avant d'incorporer la coriandre ciselée.
 Retirer du feu, servir le zaalouk d'aubergines tiède ou froid.</t>
